--- a/model_data.xlsx
+++ b/model_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,72 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>名字</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>工资</t>
+          <t>If_base</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>效</t>
+          <t>Top1-acc(%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>备注</t>
+          <t>Top5-acc(%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>G_Mac</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>G_Mac percent(%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>M_params</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>M_params percent(%)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ms_cpu_time</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ms_gpu_time</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ms_gpu_time percent(%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>M_gpu_mem</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>M_gpu_mem percent(%)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Strategy</t>
         </is>
       </c>
     </row>
@@ -461,18 +511,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>老王</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>500</v>
+          <t>resnet-18</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>0.9234</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>不及格</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>11.174</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>2744.908</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.324</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1444.625</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -482,18 +572,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>刘</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>700</v>
+          <t>resnet-18</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>84</v>
+        <v>0.9229000000000001</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>良好</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50.452</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.494</v>
+      </c>
+      <c r="I3" t="n">
+        <v>59.782</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2744.751</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L3" t="n">
+        <v>27.492</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1396.625</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.323</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[0.1, 0.1, 0.2, 0.2, 0.2, 0.2, 0.3, 0.3]</t>
         </is>
       </c>
     </row>
@@ -503,18 +625,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>小赵</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>900</v>
+          <t>resnet-18</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>98</v>
+        <v>0.5313</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>最佳</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33.258</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.473</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33.122</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2753.391</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14.653</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1416.625</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.938</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[0.125] * 8</t>
         </is>
       </c>
     </row>
@@ -524,18 +678,981 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>老</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>800</v>
+          <t>resnet-18</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>0.1823</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>优秀</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="G5" t="n">
+        <v>57.919</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.699</v>
+      </c>
+      <c r="I5" t="n">
+        <v>57.947</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3705.098</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="L5" t="n">
+        <v>32.402</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1390.625</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.738</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resnet-18</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G6" t="n">
+        <v>87.557</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.389</v>
+      </c>
+      <c r="I6" t="n">
+        <v>87.569</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3865.654</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="L6" t="n">
+        <v>55.136</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1374.625</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.846</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>resnet-34</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9026</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>21.282</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>3811.897</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>1490.625</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>resnet-34</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2412</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="G8" t="n">
+        <v>51.616</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10.913</v>
+      </c>
+      <c r="I8" t="n">
+        <v>48.722</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3786.687</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="L8" t="n">
+        <v>26.953</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1426.625</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.294</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resnet-34</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1001</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="G9" t="n">
+        <v>78.586</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.202</v>
+      </c>
+      <c r="I9" t="n">
+        <v>75.557</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3717.334</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="L9" t="n">
+        <v>46.054</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1400.625</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.038</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resnet-34</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G10" t="n">
+        <v>97.071</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="I10" t="n">
+        <v>95.94499999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3617.233</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="L10" t="n">
+        <v>64.67</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1376.625</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.648</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8965</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>23.521</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>3739.272</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1518.625</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8276</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16.367</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19.697</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16.258</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3668.911</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.911</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.248</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1488.625</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.975</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6027</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="G13" t="n">
+        <v>31.295</v>
+      </c>
+      <c r="H13" t="n">
+        <v>16.226</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31.015</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3770.074</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.695</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13.205</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1462.625</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.688</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1035</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="G14" t="n">
+        <v>56.745</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10.346</v>
+      </c>
+      <c r="I14" t="n">
+        <v>56.014</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3991.664</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="L14" t="n">
+        <v>26.699</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1424.625</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>resnet-101</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9056</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.328</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>42.513</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>3861.955</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.112</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>1610.625</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>resnet-101</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8263</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17.354</v>
+      </c>
+      <c r="H16" t="n">
+        <v>35.222</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3753.045</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.049</v>
+      </c>
+      <c r="L16" t="n">
+        <v>17.392</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1556.625</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>resnet-101</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5823</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.556</v>
+      </c>
+      <c r="G17" t="n">
+        <v>33.162</v>
+      </c>
+      <c r="H17" t="n">
+        <v>28.599</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32.729</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3573.909</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="L17" t="n">
+        <v>13.122</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1524.625</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>resnet-101</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="G18" t="n">
+        <v>60.095</v>
+      </c>
+      <c r="H18" t="n">
+        <v>17.352</v>
+      </c>
+      <c r="I18" t="n">
+        <v>59.184</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3716.153</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.495</v>
+      </c>
+      <c r="L18" t="n">
+        <v>26.456</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1466.625</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8.941000000000001</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>resnet-152</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>58.157</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>3632.751</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.795999999999999</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1686.625</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>resnet-152</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7603</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.918</v>
+      </c>
+      <c r="G20" t="n">
+        <v>17.664</v>
+      </c>
+      <c r="H20" t="n">
+        <v>48.011</v>
+      </c>
+      <c r="I20" t="n">
+        <v>17.446</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3563.279</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8.238</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1626.625</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.557</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>resnet-152</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2812</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="G21" t="n">
+        <v>33.747</v>
+      </c>
+      <c r="H21" t="n">
+        <v>38.791</v>
+      </c>
+      <c r="I21" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3815.323</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7.326</v>
+      </c>
+      <c r="L21" t="n">
+        <v>16.712</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1590.625</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.692</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>resnet-152</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="G22" t="n">
+        <v>61.117</v>
+      </c>
+      <c r="H22" t="n">
+        <v>23.125</v>
+      </c>
+      <c r="I22" t="n">
+        <v>60.237</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3995.929</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.456</v>
+      </c>
+      <c r="L22" t="n">
+        <v>26.603</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1508.625</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10.554</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5]</t>
         </is>
       </c>
     </row>

--- a/model_data.xlsx
+++ b/model_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1610,10 +1610,8 @@
           <t>resnet-152</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
+      <c r="C22" t="b">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0.1</v>
@@ -1653,6 +1651,326 @@
       <c r="O22" t="inlineStr">
         <is>
           <t>[0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>resnet-152</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="G23" t="n">
+        <v>61.117</v>
+      </c>
+      <c r="H23" t="n">
+        <v>23.125</v>
+      </c>
+      <c r="I23" t="n">
+        <v>60.237</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4132.512</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.498</v>
+      </c>
+      <c r="L23" t="n">
+        <v>26.126</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1508.625</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10.554</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>resnet-18</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G24" t="n">
+        <v>33.258</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7.473</v>
+      </c>
+      <c r="I24" t="n">
+        <v>33.122</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2860.178</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="L24" t="n">
+        <v>15.332</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1416.625</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.938</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>CSGD+[0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>resnet-18</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1839</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="G25" t="n">
+        <v>57.919</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.699</v>
+      </c>
+      <c r="I25" t="n">
+        <v>57.947</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2853.663</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="L25" t="n">
+        <v>32.175</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1390.625</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.738</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>CSGD+[0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>resnet-18</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G26" t="n">
+        <v>87.557</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.389</v>
+      </c>
+      <c r="I26" t="n">
+        <v>87.569</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2873.208</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="L26" t="n">
+        <v>54.079</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1374.625</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.846</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>CSGD+[0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G27" t="n">
+        <v>16.367</v>
+      </c>
+      <c r="H27" t="n">
+        <v>19.697</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16.258</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2870.59</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.907</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.377</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1488.625</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.975</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>CSGD+[0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125, 0.125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6172</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="G28" t="n">
+        <v>31.295</v>
+      </c>
+      <c r="H28" t="n">
+        <v>16.226</v>
+      </c>
+      <c r="I28" t="n">
+        <v>31.015</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2938.767</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L28" t="n">
+        <v>12.399</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1462.625</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.688</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>CSGD+[0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25, 0.25]</t>
         </is>
       </c>
     </row>
